--- a/ExcelFiles/test_4-20-14.xlsx
+++ b/ExcelFiles/test_4-20-14.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20366"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studio\energy-emailer\ExcelFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576184AC-B19C-4C35-9DB8-B54508CED72F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="My email" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
   <si>
     <t>Email address</t>
   </si>
@@ -36,9 +42,6 @@
     <t>Comparative (kWh)</t>
   </si>
   <si>
-    <t>rbstarbuck@gmail.com</t>
-  </si>
-  <si>
     <t>101b</t>
   </si>
   <si>
@@ -58,13 +61,28 @@
   </si>
   <si>
     <t>102d</t>
+  </si>
+  <si>
+    <t>wxzhu@umich.edu</t>
+  </si>
+  <si>
+    <t>User Group</t>
+  </si>
+  <si>
+    <t>This usage(kWh)</t>
+  </si>
+  <si>
+    <t>Highest usage (kWh)</t>
+  </si>
+  <si>
+    <t>Lowest usage (kWh)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +94,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,20 +124,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -158,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,9 +227,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,6 +279,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -399,14 +472,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -416,228 +489,106 @@
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>797</v>
+      </c>
+      <c r="D2">
+        <v>778</v>
+      </c>
+      <c r="E2">
+        <v>1013</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>897</v>
+      </c>
+      <c r="D3">
+        <v>778</v>
+      </c>
+      <c r="E3">
+        <v>1013</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>14.5</v>
-      </c>
-      <c r="E2">
-        <v>5.7</v>
-      </c>
-      <c r="F2">
-        <v>3.5</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>101</v>
-      </c>
-      <c r="D3">
-        <v>14.5</v>
-      </c>
-      <c r="E3">
-        <v>5.7</v>
-      </c>
-      <c r="F3">
-        <v>3.5</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
       <c r="C4">
-        <v>102</v>
+        <v>997</v>
       </c>
       <c r="D4">
-        <v>10.7</v>
+        <v>778</v>
       </c>
       <c r="E4">
-        <v>12.5</v>
+        <v>1013</v>
       </c>
       <c r="F4">
-        <v>7.25</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>4.5477999999999996</v>
-      </c>
-      <c r="E5">
-        <v>10.7464</v>
-      </c>
-      <c r="F5">
-        <v>8.6</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>1.5</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>103</v>
-      </c>
-      <c r="D7">
-        <v>10.5</v>
-      </c>
-      <c r="E7">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>10.5</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>11.5</v>
-      </c>
-      <c r="F8">
-        <v>1.5</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>11.5</v>
-      </c>
-      <c r="E9">
-        <v>12</v>
-      </c>
-      <c r="F9">
-        <v>1.5</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{32355220-04CF-43B7-97B1-E42D4BABA894}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{2D6724DF-F1B4-4FC0-BD6F-A4232DAE5137}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{8C9ED584-FB10-4447-94AA-9AAC0D10616B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -647,7 +598,7 @@
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,15 +615,15 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -693,9 +644,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -716,9 +667,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -739,15 +690,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>4.5477999999999996</v>
@@ -762,15 +713,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>12</v>
@@ -785,9 +736,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -808,15 +759,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>12</v>
@@ -831,15 +782,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>11.5</v>
@@ -860,14 +811,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -877,7 +828,7 @@
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -894,15 +845,15 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -923,9 +874,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -946,9 +897,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -969,15 +920,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>4.5477999999999996</v>
@@ -992,15 +943,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>12</v>
@@ -1015,9 +966,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1038,15 +989,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>12</v>
@@ -1061,15 +1012,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>11.5</v>
